--- a/database_contents.xlsx
+++ b/database_contents.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -118,6 +118,9 @@
     <t>global warming</t>
   </si>
   <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
     <t>exam_id</t>
   </si>
   <si>
@@ -134,6 +137,15 @@
   </si>
   <si>
     <t>wgat is?</t>
+  </si>
+  <si>
+    <t>what is engine?</t>
+  </si>
+  <si>
+    <t>what's purpose of engines?</t>
+  </si>
+  <si>
+    <t>is this true?</t>
   </si>
   <si>
     <t>question_id</t>
@@ -643,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +663,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -746,7 +758,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -808,6 +820,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -815,7 +841,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -826,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
@@ -843,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -857,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -871,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -885,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -899,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -913,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -927,10 +953,52 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -951,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -974,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -991,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -1008,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1025,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1042,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1059,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1076,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1100,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/database_contents.xlsx
+++ b/database_contents.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -121,6 +121,9 @@
     <t>Mechanical</t>
   </si>
   <si>
+    <t>Sustainable engineering</t>
+  </si>
+  <si>
     <t>exam_id</t>
   </si>
   <si>
@@ -148,6 +151,18 @@
     <t>is this true?</t>
   </si>
   <si>
+    <t>what is global warming</t>
+  </si>
+  <si>
+    <t>what are the causes of global warming</t>
+  </si>
+  <si>
+    <t>explain gases in global warming</t>
+  </si>
+  <si>
+    <t>explain measurements to reduce global warming</t>
+  </si>
+  <si>
     <t>question_id</t>
   </si>
   <si>
@@ -179,6 +194,39 @@
   </si>
   <si>
     <t>hi</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>ride</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>increase in temperature in earth surface due to some gases in atmosphere</t>
+  </si>
+  <si>
+    <t>emission of green house gases</t>
+  </si>
+  <si>
+    <t>co2, h2o, etc</t>
+  </si>
+  <si>
+    <t>reduce carbon emission</t>
+  </si>
+  <si>
+    <t>hi there</t>
+  </si>
+  <si>
+    <t>what's you name</t>
+  </si>
+  <si>
+    <t>you're stupid</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>earned_total</t>
@@ -655,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -663,7 +711,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -671,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -679,7 +727,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +806,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -834,6 +882,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -841,7 +903,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -852,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
@@ -869,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -883,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -897,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -911,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -925,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -939,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -953,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -967,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -981,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -995,10 +1057,66 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1019,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1042,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -1059,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -1076,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1093,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1110,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1127,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1144,10 +1262,265 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1168,13 +1541,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1217,6 +1590,62 @@
       </c>
       <c r="D4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/database_contents.xlsx
+++ b/database_contents.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,12 @@
     <t>mrinal</t>
   </si>
   <si>
+    <t>najiya</t>
+  </si>
+  <si>
+    <t>naruto</t>
+  </si>
+  <si>
     <t>TLY22CS008</t>
   </si>
   <si>
@@ -52,6 +58,12 @@
     <t>tly65</t>
   </si>
   <si>
+    <t>tly38</t>
+  </si>
+  <si>
+    <t>tlynaruto</t>
+  </si>
+  <si>
     <t>akshay@mail.com</t>
   </si>
   <si>
@@ -61,9 +73,18 @@
     <t>mr@1</t>
   </si>
   <si>
+    <t>najiya@gmail.com</t>
+  </si>
+  <si>
+    <t>naruto@mail.com</t>
+  </si>
+  <si>
     <t>1234</t>
   </si>
   <si>
+    <t>12345</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -94,15 +115,24 @@
     <t>tly1234</t>
   </si>
   <si>
+    <t>athul</t>
+  </si>
+  <si>
     <t>teacher1@mail.com</t>
   </si>
   <si>
     <t>teacher@123</t>
   </si>
   <si>
+    <t>athul@gmail.com</t>
+  </si>
+  <si>
     <t>9876</t>
   </si>
   <si>
+    <t>1122</t>
+  </si>
+  <si>
     <t>teacher_id</t>
   </si>
   <si>
@@ -124,6 +154,15 @@
     <t>Sustainable engineering</t>
   </si>
   <si>
+    <t>graphics</t>
+  </si>
+  <si>
+    <t>compiler</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
     <t>exam_id</t>
   </si>
   <si>
@@ -163,6 +202,24 @@
     <t>explain measurements to reduce global warming</t>
   </si>
   <si>
+    <t>cg nowdays</t>
+  </si>
+  <si>
+    <t>explain cg</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>2*2</t>
+  </si>
+  <si>
     <t>question_id</t>
   </si>
   <si>
@@ -227,6 +284,21 @@
   </si>
   <si>
     <t>waste</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>nice to meet you</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>earned_total</t>
@@ -587,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,13 +690,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -635,13 +707,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -652,13 +724,64 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -676,58 +799,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +860,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -762,13 +885,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -776,13 +899,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -790,13 +913,27 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +943,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -817,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -834,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -848,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -862,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -876,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>16</v>
@@ -890,10 +1027,52 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -914,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -931,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -945,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -959,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -973,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -987,7 +1166,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -1001,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -1015,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -1029,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1043,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1057,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1071,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1085,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1099,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -1113,10 +1292,94 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1137,16 +1400,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1160,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -1177,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -1194,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1211,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1228,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1245,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1262,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1279,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1296,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1313,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1330,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1347,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1364,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1381,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1398,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1415,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1432,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1449,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1466,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1483,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1500,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1517,10 +1780,146 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E23">
         <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1929,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1541,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1646,6 +2045,62 @@
       </c>
       <c r="D8">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
